--- a/24 Feb 21 - Master Target Testing.xlsx
+++ b/24 Feb 21 - Master Target Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonjaynelson/Documents/Research/OLAgen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE443F20-6B58-594D-964F-66670820E85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA51632-F6E7-194A-BAF5-ECE0D8B6612A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="12620" xr2:uid="{A775BC53-D720-564A-83B8-18E476FFA572}"/>
+    <workbookView xWindow="2480" yWindow="-21100" windowWidth="28040" windowHeight="12680" xr2:uid="{A775BC53-D720-564A-83B8-18E476FFA572}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,18 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>djay46.dn@gmail.com</author>
+    <author>tc={17C4AF15-5D9D-8941-9BF5-FD3F8A43DE32}</author>
+    <author>tc={D5B3D3F5-09BE-C640-AD2E-8638D8E246BE}</author>
+    <author>tc={48D85C35-240E-D04F-99D8-09F542BAB24C}</author>
+    <author>tc={206F35CA-2142-724D-8352-E049E8B26378}</author>
+    <author>tc={974C179B-9BE6-804D-8B9F-DB8C17C12BCB}</author>
+    <author>tc={FFD09019-566D-2D43-BB14-3426F70CDD51}</author>
+    <author>tc={522838E5-BED9-1D49-B5D6-30D46F421F95}</author>
+    <author>tc={414A68CB-7E38-294D-B0BA-2BBCFB13506A}</author>
+    <author>tc={0997F3D2-CEE3-BA4C-BD8A-D774177D294B}</author>
+    <author>tc={C62ABD20-CDED-0741-BBC3-BFA5E2C06EE4}</author>
+    <author>tc={1467DFFB-60D9-7A4B-87E0-3A19EDB1D621}</author>
+    <author>tc={A14DF615-5BB6-7149-9C9D-D619FE3D74B7}</author>
     <author>tc={F935C2A4-ABC3-364D-823D-A914189E8973}</author>
   </authors>
   <commentList>
@@ -123,32 +135,109 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Alternate Orientation to bind directly with Nicole's already owned reagents!!
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">-- Didn't work right! because it uses the data frame storage thing....
+          <t xml:space="preserve">Alternate Orientation to bind directly with Nicole's on hand S315 targets
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="1" shapeId="0" xr:uid="{F935C2A4-ABC3-364D-823D-A914189E8973}">
+    <comment ref="C17" authorId="1" shapeId="0" xr:uid="{17C4AF15-5D9D-8941-9BF5-FD3F8A43DE32}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    DJN147</t>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="2" shapeId="0" xr:uid="{D5B3D3F5-09BE-C640-AD2E-8638D8E246BE}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    DJN148
+</t>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="3" shapeId="0" xr:uid="{48D85C35-240E-D04F-99D8-09F542BAB24C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    DJN149</t>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="4" shapeId="0" xr:uid="{206F35CA-2142-724D-8352-E049E8B26378}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    DJN150</t>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="5" shapeId="0" xr:uid="{974C179B-9BE6-804D-8B9F-DB8C17C12BCB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    DJN151</t>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="6" shapeId="0" xr:uid="{FFD09019-566D-2D43-BB14-3426F70CDD51}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    DJN152</t>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="7" shapeId="0" xr:uid="{522838E5-BED9-1D49-B5D6-30D46F421F95}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    DJN153</t>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="8" shapeId="0" xr:uid="{414A68CB-7E38-294D-B0BA-2BBCFB13506A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    DJN154</t>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="9" shapeId="0" xr:uid="{0997F3D2-CEE3-BA4C-BD8A-D774177D294B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    DJN155</t>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="10" shapeId="0" xr:uid="{C62ABD20-CDED-0741-BBC3-BFA5E2C06EE4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    DJN156</t>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="11" shapeId="0" xr:uid="{1467DFFB-60D9-7A4B-87E0-3A19EDB1D621}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    DJN157</t>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="12" shapeId="0" xr:uid="{A14DF615-5BB6-7149-9C9D-D619FE3D74B7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    DJN158</t>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="13" shapeId="0" xr:uid="{F935C2A4-ABC3-364D-823D-A914189E8973}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -161,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
   <si>
     <t>OLAgen Test Sets</t>
   </si>
@@ -491,6 +580,48 @@
   </si>
   <si>
     <t>CTTTGAGGAAACGGTGGATGTCcgcATGTGCTGCTGCTTCCttcgtccatacgacctcgatgccga</t>
+  </si>
+  <si>
+    <t>S315T(-)</t>
+  </si>
+  <si>
+    <t>CAAAAGGAAGTCGCGCAATAcgcCATGTGGCTGGGAGCGCGCttcgtccatacgacctcgatgccgg</t>
+  </si>
+  <si>
+    <t>CAAAAGGAAGTCGCGCAATAcgcttcgtccatacgacctcgatgccgc</t>
+  </si>
+  <si>
+    <t>/5Phos/tggtgatcgcgtccttaccggttccgGTTCAGCAGAGAGAATTCACTCAG</t>
+  </si>
+  <si>
+    <t>S315N(-)</t>
+  </si>
+  <si>
+    <t>CAGCTGGCATCATGAAGAACCcgcCCGTTGTGGATGGAATAGTGGttcgtccatacgacctcgatgccgt</t>
+  </si>
+  <si>
+    <t>CAGCTGGCATCATGAAGAACCcgcttcgtccatacgacctcgatgccgc</t>
+  </si>
+  <si>
+    <t>/5Phos/tggtgatcgcgtccttaccggttccgGGAGAAAAAGATGGGACAGGTG</t>
+  </si>
+  <si>
+    <t>S315I(-)</t>
+  </si>
+  <si>
+    <t>GTTAAGGGAGTGAAGACGATCAGAcgcAGCAATCTAAAAGTCACCTCGAAAGATGACTttcgtccatacgacctcgatgccga</t>
+  </si>
+  <si>
+    <t>GTTAAGGGAGTGAAGACGATCAGAcgcttcgtccatacgacctcgatgccgc</t>
+  </si>
+  <si>
+    <t>/5Phos/tggtgatcgcgtccttaccggttccgTTATGAGAAATCAAAGTCTTTGGGTT</t>
+  </si>
+  <si>
+    <t>CAAAAGGAAGTCGCGCAATAcgcCATGTGGCTGGGAGCGCGCttcgtccatacgacctcgatgccga</t>
+  </si>
+  <si>
+    <t>CTTTGAGGAAACGGTGGATGTCttcgtccatacgacctcgatgccgc</t>
   </si>
 </sst>
 </file>
@@ -597,24 +728,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -631,11 +744,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -662,6 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -997,7 +1137,44 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A20" dT="2024-02-21T16:57:40.54" personId="{4252D0DA-8592-5848-9EA6-FF3F2A4D0261}" id="{F935C2A4-ABC3-364D-823D-A914189E8973}">
+  <threadedComment ref="C17" dT="2024-02-22T20:49:12.89" personId="{4252D0DA-8592-5848-9EA6-FF3F2A4D0261}" id="{17C4AF15-5D9D-8941-9BF5-FD3F8A43DE32}">
+    <text>DJN147</text>
+  </threadedComment>
+  <threadedComment ref="D17" dT="2024-02-22T20:49:37.08" personId="{4252D0DA-8592-5848-9EA6-FF3F2A4D0261}" id="{D5B3D3F5-09BE-C640-AD2E-8638D8E246BE}">
+    <text xml:space="preserve">DJN148
+</text>
+  </threadedComment>
+  <threadedComment ref="E17" dT="2024-02-22T20:52:24.38" personId="{4252D0DA-8592-5848-9EA6-FF3F2A4D0261}" id="{48D85C35-240E-D04F-99D8-09F542BAB24C}">
+    <text>DJN149</text>
+  </threadedComment>
+  <threadedComment ref="F17" dT="2024-02-22T20:53:02.60" personId="{4252D0DA-8592-5848-9EA6-FF3F2A4D0261}" id="{206F35CA-2142-724D-8352-E049E8B26378}">
+    <text>DJN150</text>
+  </threadedComment>
+  <threadedComment ref="G17" dT="2024-02-22T20:53:57.23" personId="{4252D0DA-8592-5848-9EA6-FF3F2A4D0261}" id="{974C179B-9BE6-804D-8B9F-DB8C17C12BCB}">
+    <text>DJN151</text>
+  </threadedComment>
+  <threadedComment ref="H17" dT="2024-02-22T20:53:47.88" personId="{4252D0DA-8592-5848-9EA6-FF3F2A4D0261}" id="{FFD09019-566D-2D43-BB14-3426F70CDD51}">
+    <text>DJN152</text>
+  </threadedComment>
+  <threadedComment ref="C21" dT="2024-02-22T20:56:32.08" personId="{4252D0DA-8592-5848-9EA6-FF3F2A4D0261}" id="{522838E5-BED9-1D49-B5D6-30D46F421F95}">
+    <text>DJN153</text>
+  </threadedComment>
+  <threadedComment ref="D21" dT="2024-02-22T20:56:12.47" personId="{4252D0DA-8592-5848-9EA6-FF3F2A4D0261}" id="{414A68CB-7E38-294D-B0BA-2BBCFB13506A}">
+    <text>DJN154</text>
+  </threadedComment>
+  <threadedComment ref="E21" dT="2024-02-22T20:56:04.63" personId="{4252D0DA-8592-5848-9EA6-FF3F2A4D0261}" id="{0997F3D2-CEE3-BA4C-BD8A-D774177D294B}">
+    <text>DJN155</text>
+  </threadedComment>
+  <threadedComment ref="C22" dT="2024-02-22T21:08:39.24" personId="{4252D0DA-8592-5848-9EA6-FF3F2A4D0261}" id="{C62ABD20-CDED-0741-BBC3-BFA5E2C06EE4}">
+    <text>DJN156</text>
+  </threadedComment>
+  <threadedComment ref="D22" dT="2024-02-22T21:08:10.73" personId="{4252D0DA-8592-5848-9EA6-FF3F2A4D0261}" id="{1467DFFB-60D9-7A4B-87E0-3A19EDB1D621}">
+    <text>DJN157</text>
+  </threadedComment>
+  <threadedComment ref="E22" dT="2024-02-22T21:08:26.18" personId="{4252D0DA-8592-5848-9EA6-FF3F2A4D0261}" id="{A14DF615-5BB6-7149-9C9D-D619FE3D74B7}">
+    <text>DJN158</text>
+  </threadedComment>
+  <threadedComment ref="A24" dT="2024-02-21T16:57:40.54" personId="{4252D0DA-8592-5848-9EA6-FF3F2A4D0261}" id="{F935C2A4-ABC3-364D-823D-A914189E8973}">
     <text>These sequences are exact matches to the targets we have. May need to run R/C or do PCR beforehand/</text>
   </threadedComment>
 </ThreadedComments>
@@ -1005,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11738371-F3F5-3649-9069-9AEB11011DA2}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1073,10 +1250,10 @@
         <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>15</v>
@@ -1337,11 +1514,11 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C17" t="s">
@@ -1370,10 +1547,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="12" t="s">
         <v>85</v>
       </c>
       <c r="C18" t="s">
@@ -1401,18 +1578,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C19" t="s">
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
         <v>106</v>
@@ -1433,155 +1610,283 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>81</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D24" t="s">
         <v>82</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E24" t="s">
         <v>83</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F24" t="s">
         <v>55</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G24" t="s">
         <v>56</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H24" t="s">
         <v>57</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I24" t="s">
         <v>58</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>86</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D25" t="s">
         <v>87</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E25" t="s">
         <v>88</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F25" t="s">
         <v>89</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G25" t="s">
         <v>90</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H25" t="s">
         <v>91</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I25" t="s">
         <v>92</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>95</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D26" t="s">
         <v>96</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E26" t="s">
         <v>97</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F26" t="s">
         <v>64</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G26" t="s">
         <v>65</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H26" t="s">
         <v>66</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I26" t="s">
         <v>67</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="12" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
